--- a/Resources/Capitals.xlsx
+++ b/Resources/Capitals.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\IdeaProjects\CWJUnitProject\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MONSTER\IdeaProjects\JUnitProject\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B39AF-AA83-43F1-A97E-CC98585E60D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E54F4F-9A67-4C32-A027-CDE96F5C8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="-20850" windowWidth="28800" windowHeight="15650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Yeni Sayfa" sheetId="2" r:id="rId2"/>
+    <sheet name="Firstname Lastname" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="317">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -89,12 +91,895 @@
   </si>
   <si>
     <t>POPULATION</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Pfeffer</t>
+  </si>
+  <si>
+    <t>Rodrick</t>
+  </si>
+  <si>
+    <t>Fritsch</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Berge</t>
+  </si>
+  <si>
+    <t>Fiona</t>
+  </si>
+  <si>
+    <t>Reilly</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Jacobi</t>
+  </si>
+  <si>
+    <t>Katia</t>
+  </si>
+  <si>
+    <t>Dicki</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>Bashirian</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Hettie</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Torp</t>
+  </si>
+  <si>
+    <t>Hiroko</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Lawanna</t>
+  </si>
+  <si>
+    <t>Schoen</t>
+  </si>
+  <si>
+    <t>Freeda</t>
+  </si>
+  <si>
+    <t>Kuhic</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Lenard</t>
+  </si>
+  <si>
+    <t>Leffler</t>
+  </si>
+  <si>
+    <t>Lonnie</t>
+  </si>
+  <si>
+    <t>Romaguera</t>
+  </si>
+  <si>
+    <t>Leeanne</t>
+  </si>
+  <si>
+    <t>Mosciski</t>
+  </si>
+  <si>
+    <t>Monty</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Soila</t>
+  </si>
+  <si>
+    <t>Kisha</t>
+  </si>
+  <si>
+    <t>Ankunding</t>
+  </si>
+  <si>
+    <t>Lyle</t>
+  </si>
+  <si>
+    <t>Luettgen</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Steuber</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Fisher</t>
+  </si>
+  <si>
+    <t>Jonell</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Christinia</t>
+  </si>
+  <si>
+    <t>Greenholt</t>
+  </si>
+  <si>
+    <t>Tammie</t>
+  </si>
+  <si>
+    <t>Bechtelar</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Kirlin</t>
+  </si>
+  <si>
+    <t>Mikaela</t>
+  </si>
+  <si>
+    <t>Daugherty</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Oberbrunner</t>
+  </si>
+  <si>
+    <t>Debi</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Bartell</t>
+  </si>
+  <si>
+    <t>Alejandrina</t>
+  </si>
+  <si>
+    <t>Rippin</t>
+  </si>
+  <si>
+    <t>Giovanni</t>
+  </si>
+  <si>
+    <t>Keebler</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Bednar</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Schiller</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>Rosenbaum</t>
+  </si>
+  <si>
+    <t>Maire</t>
+  </si>
+  <si>
+    <t>Weimann</t>
+  </si>
+  <si>
+    <t>Lida</t>
+  </si>
+  <si>
+    <t>Botsford</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Hyatt</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Bong</t>
+  </si>
+  <si>
+    <t>Koss</t>
+  </si>
+  <si>
+    <t>Chas</t>
+  </si>
+  <si>
+    <t>Heathcote</t>
+  </si>
+  <si>
+    <t>Rolando</t>
+  </si>
+  <si>
+    <t>Karisa</t>
+  </si>
+  <si>
+    <t>MacGyver</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Streich</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Schuster</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Kutch</t>
+  </si>
+  <si>
+    <t>Toney</t>
+  </si>
+  <si>
+    <t>Koepp</t>
+  </si>
+  <si>
+    <t>Hyo</t>
+  </si>
+  <si>
+    <t>Schimmel</t>
+  </si>
+  <si>
+    <t>Shanae</t>
+  </si>
+  <si>
+    <t>Sauer</t>
+  </si>
+  <si>
+    <t>Dorthea</t>
+  </si>
+  <si>
+    <t>Thiel</t>
+  </si>
+  <si>
+    <t>Cristopher</t>
+  </si>
+  <si>
+    <t>Hagenes</t>
+  </si>
+  <si>
+    <t>Inez</t>
+  </si>
+  <si>
+    <t>Wintheiser</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Kohler</t>
+  </si>
+  <si>
+    <t>Roseline</t>
+  </si>
+  <si>
+    <t>Hammes</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Raymon</t>
+  </si>
+  <si>
+    <t>Marquardt</t>
+  </si>
+  <si>
+    <t>Ginette</t>
+  </si>
+  <si>
+    <t>Prosacco</t>
+  </si>
+  <si>
+    <t>Karrie</t>
+  </si>
+  <si>
+    <t>Kuhlman</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Corwin</t>
+  </si>
+  <si>
+    <t>Desmond</t>
+  </si>
+  <si>
+    <t>Schaefer</t>
+  </si>
+  <si>
+    <t>Alisia</t>
+  </si>
+  <si>
+    <t>Brekke</t>
+  </si>
+  <si>
+    <t>Irvin</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Brakus</t>
+  </si>
+  <si>
+    <t>Mirta</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Prudence</t>
+  </si>
+  <si>
+    <t>Glover</t>
+  </si>
+  <si>
+    <t>Clement</t>
+  </si>
+  <si>
+    <t>Powlowski</t>
+  </si>
+  <si>
+    <t>Tyree</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Turcotte</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Yost</t>
+  </si>
+  <si>
+    <t>Derek</t>
+  </si>
+  <si>
+    <t>Osinski</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Blanda</t>
+  </si>
+  <si>
+    <t>Shaunta</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Denese</t>
+  </si>
+  <si>
+    <t>Mraz</t>
+  </si>
+  <si>
+    <t>Nancee</t>
+  </si>
+  <si>
+    <t>Bernier</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Rempel</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>Gladys</t>
+  </si>
+  <si>
+    <t>Waelchi</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Gerhold</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Little</t>
+  </si>
+  <si>
+    <t>Darryl</t>
+  </si>
+  <si>
+    <t>Veum</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Mariette</t>
+  </si>
+  <si>
+    <t>Bauch</t>
+  </si>
+  <si>
+    <t>Domenic</t>
+  </si>
+  <si>
+    <t>Zola</t>
+  </si>
+  <si>
+    <t>Nikolaus</t>
+  </si>
+  <si>
+    <t>Dina</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Hoeger</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Wiegand</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Simonis</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>4694 Kunze Mountain, Port Breanaton, NY 52043-1717</t>
+  </si>
+  <si>
+    <t>Suite 537 9219 Geraldo Drive, Vandervortshire, RI 43746-9418</t>
+  </si>
+  <si>
+    <t>75502 Derick Port, West Samstad, AK 96362</t>
+  </si>
+  <si>
+    <t>746 Volkman Flat, Marquardtfort, TN 40711-6666</t>
+  </si>
+  <si>
+    <t>Suite 243 423 Levi Junctions, Louietown, TX 04700</t>
+  </si>
+  <si>
+    <t>142 Dooley Inlet, Jastton, WA 02396-7773</t>
+  </si>
+  <si>
+    <t>22178 Mueller Forest, Lake Felipemouth, LA 11455</t>
+  </si>
+  <si>
+    <t>56529 Frami Grove, Wymanside, AZ 01260</t>
+  </si>
+  <si>
+    <t>21058 Bartell Lodge, South Heathhaven, DE 39692-7379</t>
+  </si>
+  <si>
+    <t>65369 Stoltenberg Hollow, Connville, ID 70321-4011</t>
+  </si>
+  <si>
+    <t>Suite 573 2040 Tomasa Mountain, East Augustusland, NY 53723-7368</t>
+  </si>
+  <si>
+    <t>Suite 058 2745 Fabiola Road, South Justin, TN 84681</t>
+  </si>
+  <si>
+    <t>449 Hand Fort, North Helene, FL 90115-2853</t>
+  </si>
+  <si>
+    <t>9923 Considine View, Kutchhaven, IL 25068-2532</t>
+  </si>
+  <si>
+    <t>Suite 178 3246 Young Falls, Runolfsdottirberg, KS 11384</t>
+  </si>
+  <si>
+    <t>Apt. 911 107 Davis Mission, Feestmouth, MS 29663</t>
+  </si>
+  <si>
+    <t>2761 Crona Landing, DuBuqueberg, MD 73107-0567</t>
+  </si>
+  <si>
+    <t>Suite 263 58166 Lynwood Inlet, Port Melitachester, SD 03168</t>
+  </si>
+  <si>
+    <t>1962 Gustavo Courts, Evanland, NC 61719-1354</t>
+  </si>
+  <si>
+    <t>388 Johnie Freeway, West Tinyview, ND 44572</t>
+  </si>
+  <si>
+    <t>396 Bradtke Shoals, North Hubert, AZ 30219</t>
+  </si>
+  <si>
+    <t>Suite 981 3848 Lucie Courts, North Marianela, AR 92965-0134</t>
+  </si>
+  <si>
+    <t>Suite 394 1190 Gleichner Mountain, South Elissa, NH 78023-5573</t>
+  </si>
+  <si>
+    <t>Suite 032 0712 Kristyn Shoals, South Otiston, KY 07754-6651</t>
+  </si>
+  <si>
+    <t>Apt. 525 51907 Lebsack Ville, North Tommye, NE 55232</t>
+  </si>
+  <si>
+    <t>280 Ivey Trafficway, Luettgenfurt, CA 36465</t>
+  </si>
+  <si>
+    <t>Apt. 356 073 MacGyver Stravenue, Lemkeburgh, FL 23754-1489</t>
+  </si>
+  <si>
+    <t>Suite 464 050 Jacobson Hill, South Anjelica, AL 07049-2313</t>
+  </si>
+  <si>
+    <t>Suite 999 059 Tyrell Lodge, Nicolettefurt, IA 97157</t>
+  </si>
+  <si>
+    <t>6736 Fisher Plaza, Lake Carlosfort, OH 87369</t>
+  </si>
+  <si>
+    <t>Apt. 153 29491 Stehr Divide, North Perla, IL 19519</t>
+  </si>
+  <si>
+    <t>349 Torrie Lights, Westfurt, MS 15112</t>
+  </si>
+  <si>
+    <t>38723 Simonis Ranch, South Opal, MO 81664-5725</t>
+  </si>
+  <si>
+    <t>5499 Johna Manor, Durganland, NM 86913</t>
+  </si>
+  <si>
+    <t>59308 Olga Inlet, North Toney, WA 30525-3985</t>
+  </si>
+  <si>
+    <t>27939 Hettinger Roads, Lake Randa, LA 65234</t>
+  </si>
+  <si>
+    <t>Apt. 943 9710 Monahan Fort, Solomonburgh, ID 09026-2022</t>
+  </si>
+  <si>
+    <t>049 Valentin Locks, South Bobbie, OR 36210-8242</t>
+  </si>
+  <si>
+    <t>973 Wyman Burgs, Lake Suktown, NJ 78156-3768</t>
+  </si>
+  <si>
+    <t>Apt. 804 936 Mariah Turnpike, Laineport, LA 14246</t>
+  </si>
+  <si>
+    <t>4496 Blossom Highway, McKenzieport, WI 75815-2409</t>
+  </si>
+  <si>
+    <t>Apt. 895 9625 Wiegand Divide, West Minna, IA 59362-3426</t>
+  </si>
+  <si>
+    <t>040 Weber Roads, Lake Randi, OH 85866</t>
+  </si>
+  <si>
+    <t>0406 Lueilwitz Crossing, Parkerside, MN 30645-3633</t>
+  </si>
+  <si>
+    <t>Apt. 057 475 Virgilio Court, North Joanhaven, IN 16855</t>
+  </si>
+  <si>
+    <t>36532 Beahan Squares, Pacochaview, SD 29084</t>
+  </si>
+  <si>
+    <t>Suite 101 999 Kali Shore, Klingside, NC 95686-6902</t>
+  </si>
+  <si>
+    <t>1827 Parker Loop, South Mildaton, WA 06873-8965</t>
+  </si>
+  <si>
+    <t>Suite 331 1490 Marquis Shoals, Candelariahaven, IA 67330-9555</t>
+  </si>
+  <si>
+    <t>803 Runte Inlet, McLaughlintown, MT 82072-9332</t>
+  </si>
+  <si>
+    <t>Suite 788 720 Hegmann Roads, New Dominic, NJ 16389-8850</t>
+  </si>
+  <si>
+    <t>524 Devin Meadows, Felicitamouth, MA 55051-7259</t>
+  </si>
+  <si>
+    <t>258 Kuhlman Walks, North Blair, OK 51174-4023</t>
+  </si>
+  <si>
+    <t>Apt. 280 2908 O'Keefe Island, Conroyport, VT 18897-5959</t>
+  </si>
+  <si>
+    <t>90526 Kevin Tunnel, North Keisha, RI 23680</t>
+  </si>
+  <si>
+    <t>Apt. 383 0928 Altenwerth Crest, Kiethfurt, RI 14793</t>
+  </si>
+  <si>
+    <t>891 Cindy Mission, Klockoberg, SD 99771-8886</t>
+  </si>
+  <si>
+    <t>Apt. 973 33803 Lowe Views, New Drew, KS 97496</t>
+  </si>
+  <si>
+    <t>8495 Angelica Flats, New Carli, MI 05201-9887</t>
+  </si>
+  <si>
+    <t>2456 Brakus Parks, Bretport, HI 71937</t>
+  </si>
+  <si>
+    <t>5054 Roger Vista, Lake Patrickport, VT 57109</t>
+  </si>
+  <si>
+    <t>Suite 217 9253 Corkery Summit, West Yvone, IL 82407-0984</t>
+  </si>
+  <si>
+    <t>Apt. 608 0959 Jose Trail, Terryhaven, NC 71957-5541</t>
+  </si>
+  <si>
+    <t>478 Ben Lakes, South Harveymouth, IA 57213</t>
+  </si>
+  <si>
+    <t>82051 Tiffiny Port, South Tawnafort, VT 78346-0999</t>
+  </si>
+  <si>
+    <t>57558 Gulgowski Greens, Jenkinsstad, IL 39201</t>
+  </si>
+  <si>
+    <t>Apt. 094 991 Wyman Bridge, South Wanetta, UT 22896</t>
+  </si>
+  <si>
+    <t>76534 Cheryle Glens, Bahringerchester, IL 45843-1683</t>
+  </si>
+  <si>
+    <t>Suite 411 01750 Nicky Stream, North Bernardinabury, TN 20244-2841</t>
+  </si>
+  <si>
+    <t>Suite 955 7581 Josue Village, Lake Nila, KY 27374</t>
+  </si>
+  <si>
+    <t>70402 Magaly Turnpike, South Kasieville, MO 82843</t>
+  </si>
+  <si>
+    <t>Apt. 467 985 Verlie Loaf, Mertzmouth, WI 08253</t>
+  </si>
+  <si>
+    <t>Suite 006 0298 Murphy Camp, East Stefanyfort, FL 88813-0800</t>
+  </si>
+  <si>
+    <t>99346 Kendrick Rest, Kshlerinport, NY 42091-0267</t>
+  </si>
+  <si>
+    <t>Apt. 575 4925 Lind Road, Trompland, NC 67489</t>
+  </si>
+  <si>
+    <t>91311 Karolyn Haven, South Scottymouth, MO 23383</t>
+  </si>
+  <si>
+    <t>Apt. 759 35672 Goldner Road, Krisland, OH 98045-7472</t>
+  </si>
+  <si>
+    <t>Apt. 400 479 Kip Mission, Lake Clementport, FL 96448-0035</t>
+  </si>
+  <si>
+    <t>8858 Verna Mountains, East Percy, IA 16425</t>
+  </si>
+  <si>
+    <t>Suite 465 5920 Terry Burg, Lake Arlethaside, WI 59761-6777</t>
+  </si>
+  <si>
+    <t>57316 Tromp Extensions, East Dierdreville, TX 20369-2363</t>
+  </si>
+  <si>
+    <t>Apt. 836 9289 Hal Extension, Dongshire, WY 01317-0692</t>
+  </si>
+  <si>
+    <t>Suite 184 461 Haley Shores, Sanfordtown, MN 16078</t>
+  </si>
+  <si>
+    <t>031 Ladawn Roads, Watersland, OK 90031</t>
+  </si>
+  <si>
+    <t>Apt. 580 2007 Rau Inlet, South Franklyn, DE 91349</t>
+  </si>
+  <si>
+    <t>Apt. 804 1286 Raynor Orchard, Bonnyland, IN 74258</t>
+  </si>
+  <si>
+    <t>Suite 850 2500 Tanner Trail, Kosshaven, CO 29961-2601</t>
+  </si>
+  <si>
+    <t>74664 Otis Center, Eloyfort, ID 39937-7772</t>
+  </si>
+  <si>
+    <t>Suite 059 2157 Shanelle Overpass, Toshatown, SC 33919</t>
+  </si>
+  <si>
+    <t>Suite 226 921 Royce Isle, New Santo, WY 78594</t>
+  </si>
+  <si>
+    <t>Apt. 581 98768 Nedra Grove, Arnoldtown, OK 16263</t>
+  </si>
+  <si>
+    <t>Suite 691 4690 Dominic Shores, South Milestown, UT 46024</t>
+  </si>
+  <si>
+    <t>Apt. 429 74500 Herlinda Expressway, South Reuben, KS 03267-8986</t>
+  </si>
+  <si>
+    <t>28531 Rosario Mill, Danielleside, WI 79875</t>
+  </si>
+  <si>
+    <t>Suite 874 04242 Sheri Pike, Johnsonfurt, NJ 65085</t>
+  </si>
+  <si>
+    <t>Suite 584 799 Olson Circle, Maggieberg, NC 23884</t>
+  </si>
+  <si>
+    <t>Apt. 899 474 Walker Plaza, Gustavotown, KY 81848</t>
+  </si>
+  <si>
+    <t>92414 Morissette Estate, South Efrentown, KY 00671-0458</t>
+  </si>
+  <si>
+    <t>95231 Paulita Ville, Alvinshire, KS 06876</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -383,24 +1268,24 @@
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -408,7 +1293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -416,7 +1301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -424,7 +1309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -432,7 +1317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -440,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -448,7 +1333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -456,7 +1341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -464,7 +1349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -472,7 +1357,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -484,4 +1369,1137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>